--- a/Plotting/result_data_long_Scope1-2.xlsx
+++ b/Plotting/result_data_long_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,13 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +503,21 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,19 +527,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250731174022_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250808150315_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250731185408_2040_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250801021827_2050_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250808155430_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250808_17_50\Iteration_1\20250808215731_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250808_17_50\Iteration_1\20250808230236_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -526,14 +555,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3481381053.308156</v>
+        <v>2060839298.764688</v>
       </c>
       <c r="C5" t="n">
-        <v>2539959636.616223</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1568549048.750787</v>
-      </c>
+        <v>1989094876.426372</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3144017631.421227</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1736084737.714365</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -543,11 +577,14 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>26187391.92952884</v>
-      </c>
-      <c r="D6" t="n">
-        <v>327988035.8521503</v>
-      </c>
+        <v>52898460.82227882</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>285978981.2824174</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -556,14 +593,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3481381053.308156</v>
+        <v>2060839298.764688</v>
       </c>
       <c r="C7" t="n">
-        <v>2566147028.545752</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1896537084.602937</v>
-      </c>
+        <v>2041993337.248651</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3144017631.421227</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2022063718.996782</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -573,9 +615,10 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>79178777745.27316</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -584,14 +627,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>936439.8227879773</v>
+        <v>1461029.634164181</v>
       </c>
       <c r="C9" t="n">
-        <v>468219.9113940453</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+        <v>179985.9293451491</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1582503.873809524</v>
+      </c>
+      <c r="F9" t="n">
+        <v>194649.7211934948</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -605,9 +653,14 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -616,14 +669,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>29.47739077487431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1625283043719024</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.03512783014850292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1191135888214053</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -635,11 +693,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>202.0837418697125</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88.66207151539636</v>
-      </c>
+        <v>152.0824956621404</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>35.7436129435044</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -651,11 +714,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8999999999999995</v>
-      </c>
+        <v>0.8787996184265986</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -664,14 +732,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>377.7362830384236</v>
+        <v>134.6254473269055</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
+        <v>242.6609491318073</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>440.6725285927222</v>
+      </c>
+      <c r="F14" t="n">
+        <v>55.89514127298668</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -680,14 +753,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>326.5382363669955</v>
+        <v>186.1131521739125</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
+        <v>92.75943929776638</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>474.173402724777</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -696,14 +774,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.40040000002648</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>56.73275833549283</v>
-      </c>
-      <c r="D16" t="n">
-        <v>25.69367975915907</v>
-      </c>
+        <v>43.11538752021684</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>74.5337142694835</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -717,9 +800,14 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -732,6 +820,11 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>205.8680403267672</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -744,6 +837,11 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -757,9 +855,14 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -768,10 +871,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>451</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -782,8 +894,17 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -792,14 +913,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>354.2993656854857</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>62.95809164684834</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -808,14 +934,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>913.4523725244932</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
+        <v>2114</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>2114</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -824,14 +955,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>848.2702381263159</v>
       </c>
       <c r="C25" t="n">
-        <v>4.677073506446391</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.010872810669714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.427729174700414</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -845,9 +981,14 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -861,9 +1002,14 @@
       <c r="C27" t="n">
         <v>1248</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
         <v>1248</v>
       </c>
+      <c r="F27" t="n">
+        <v>1248</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -877,9 +1023,14 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -893,9 +1044,14 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -907,11 +1063,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>65.07096488207199</v>
-      </c>
-      <c r="D30" t="n">
-        <v>28.54918702793307</v>
-      </c>
+        <v>381.8244223006585</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>325.346714</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -923,11 +1084,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
+        <v>400.1195644992017</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>395.3180000000016</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -940,6 +1106,11 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -948,10 +1119,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>451</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>451</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -965,9 +1145,14 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -976,14 +1161,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.6960854781719</v>
+        <v>122.1461187214612</v>
       </c>
       <c r="C35" t="n">
-        <v>1.932059881037602</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2.936689412346066</v>
-      </c>
+        <v>6.29761235250616</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>122.1461187214612</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.735455166265404</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -997,9 +1187,14 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1012,6 +1207,11 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1024,6 +1224,11 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1032,14 +1237,17 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
         <v>1068</v>
       </c>
-      <c r="C39" t="n">
+      <c r="F39" t="n">
         <v>1068</v>
       </c>
-      <c r="D39" t="n">
-        <v>1068</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1048,14 +1256,17 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.900000000000001</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.8994823901626127</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.8999999999999932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1069,9 +1280,14 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1083,11 +1299,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>62.75725477764991</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3963.506234227083</v>
-      </c>
+        <v>11611.03725671675</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>37860.51187427147</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1096,14 +1317,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.511503345161289e-10</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.471940174612614e-10</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1112,14 +1338,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>170.8155936620888</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1128,14 +1359,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1394.538236366996</v>
+        <v>1058.321060408895</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
+        <v>2090.990244341974</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>3656.173402724777</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1149,9 +1385,14 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1163,11 +1404,16 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
+        <v>400.1195644992017</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>395.318</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1181,9 +1427,14 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1192,14 +1443,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>135.8724000006722</v>
+        <v>90.96839437410742</v>
       </c>
       <c r="C49" t="n">
-        <v>225.2426786086253</v>
-      </c>
-      <c r="D49" t="n">
-        <v>687.8861184744286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>71.47200000005238</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1213,9 +1469,14 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1229,9 +1490,14 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1245,9 +1511,14 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1261,9 +1532,14 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1277,9 +1553,14 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1293,9 +1574,14 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1309,9 +1595,14 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1325,9 +1616,14 @@
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1341,9 +1637,14 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1352,14 +1653,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>125.6960854781719</v>
+        <v>122.1461187214612</v>
       </c>
       <c r="C59" t="n">
-        <v>127.6281453592358</v>
-      </c>
-      <c r="D59" t="n">
-        <v>130.5648347715907</v>
-      </c>
+        <v>128.4437310739674</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>122.1461187214612</v>
+      </c>
+      <c r="F59" t="n">
+        <v>127.8815738877281</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1373,9 +1679,14 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1384,14 +1695,19 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>136.541664000713</v>
+        <v>142.5094000052393</v>
       </c>
       <c r="C61" t="n">
-        <v>136.1443784415749</v>
-      </c>
-      <c r="D61" t="n">
-        <v>137.4972389812839</v>
-      </c>
+        <v>142.5094000051478</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>136.5416640000293</v>
+      </c>
+      <c r="F61" t="n">
+        <v>137.1175225013586</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1403,11 +1719,16 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>202.0837418697888</v>
-      </c>
-      <c r="D62" t="n">
-        <v>290.7458133851089</v>
-      </c>
+        <v>152.0824956621418</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>35.74361294350528</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1421,9 +1742,14 @@
       <c r="C63" t="n">
         <v>0</v>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1437,9 +1763,14 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1448,14 +1779,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1464,14 +1800,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>469.7945676507363</v>
+        <v>539.4980167642001</v>
       </c>
       <c r="C66" t="n">
-        <v>3250.000000000616</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3898.036603548984</v>
-      </c>
+        <v>3250</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>1156.843658925859</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1485,9 +1826,14 @@
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1496,14 +1842,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>354.2993656854857</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>62.95809164684834</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1517,9 +1868,14 @@
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1533,9 +1889,14 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1544,14 +1905,19 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>84.04913900767879</v>
+        <v>75.75268127855347</v>
       </c>
       <c r="C71" t="n">
-        <v>79.17570302529374</v>
-      </c>
-      <c r="D71" t="n">
-        <v>80.36066362939302</v>
-      </c>
+        <v>93.3926165558203</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>74.90249956592712</v>
+      </c>
+      <c r="F71" t="n">
+        <v>87.43704110324566</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1565,9 +1931,14 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1581,9 +1952,14 @@
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1597,9 +1973,14 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1613,9 +1994,14 @@
       <c r="C75" t="n">
         <v>0</v>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1624,14 +2010,19 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1394.538236367169</v>
+        <v>721.6917191047805</v>
       </c>
       <c r="C76" t="n">
-        <v>1287.738236366996</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
+        <v>3149.311304750869</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>3495.390463229572</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3474.588681587129</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1645,9 +2036,14 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1659,11 +2055,16 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1287.738236367181</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1677,9 +2078,14 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1693,9 +2099,14 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1709,9 +2120,14 @@
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1720,14 +2136,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>451.0000000000207</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>205.8680403267672</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1741,9 +2162,14 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1757,9 +2183,14 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1773,9 +2204,14 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1789,9 +2225,14 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -1800,14 +2241,19 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>11.11248738010056</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5200905740437978</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.632499630468306</v>
-      </c>
+        <v>11.11248738010056</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.3811634842316953</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -1821,9 +2267,14 @@
       <c r="C88" t="n">
         <v>0</v>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -1837,9 +2288,14 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -1853,9 +2309,14 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -1869,9 +2330,14 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -1885,9 +2351,14 @@
       <c r="C92" t="n">
         <v>0</v>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -1901,9 +2372,14 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -1917,9 +2393,14 @@
       <c r="C94" t="n">
         <v>0</v>
       </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -1933,9 +2414,14 @@
       <c r="C95" t="n">
         <v>0</v>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -1949,9 +2435,14 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -1965,9 +2456,14 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -1981,9 +2477,14 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -1997,51 +2498,63 @@
       <c r="C99" t="n">
         <v>0</v>
       </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El_existing</t>
+          <t>size_ASU_existing</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>377.7362830384236</v>
-      </c>
-      <c r="D100" t="n">
-        <v>377.7362830384236</v>
-      </c>
+        <v>29.47739077487431</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_Industrial_NG_existing</t>
+          <t>size_Boiler_El_existing</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>326.5382363669955</v>
-      </c>
-      <c r="D101" t="n">
-        <v>326.5382363669955</v>
-      </c>
+        <v>134.6254473269055</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>440.6725285927222</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>size_CO2_mixer_existing</t>
+          <t>size_Boiler_Industrial_NG_existing</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>64.40040000002648</v>
-      </c>
-      <c r="D102" t="n">
-        <v>121.1331583355193</v>
-      </c>
+        <v>186.1131521739125</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>474.173402724777</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2051,11 +2564,14 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>246.1617635344961</v>
-      </c>
-      <c r="D103" t="n">
-        <v>53.20383210415326</v>
-      </c>
+        <v>162.3988821408014</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>180.4067986693028</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2067,139 +2583,158 @@
       <c r="C104" t="n">
         <v>0</v>
       </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>size_EDH_existing</t>
+          <t>size_ElectricSMR_m_existing</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>354.2993656854857</v>
-      </c>
-      <c r="D105" t="n">
-        <v>417.257457332334</v>
-      </c>
+        <v>913.4523725244932</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>2114</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer_existing</t>
+          <t>size_HBfeed_mixer_existing</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>125.6960854781719</v>
-      </c>
-      <c r="D106" t="n">
-        <v>127.6281453592095</v>
-      </c>
+        <v>848.2702381263159</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer_existing</t>
+          <t>size_PE_mixer_existing</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1394.538236366996</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1394.538236366996</v>
-      </c>
+        <v>122.1461187214612</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>122.1461187214612</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>size_ASU_existing</t>
+          <t>size_Storage_H2_existing</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="n">
-        <v>0.1625283043719024</v>
-      </c>
+      <c r="C108" t="n">
+        <v>1.511503345161289e-10</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol_existing</t>
+          <t>size_WGS_m_existing</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="n">
-        <v>202.0837418697125</v>
-      </c>
+      <c r="C109" t="n">
+        <v>170.8155936620888</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol_existing_CC</t>
+          <t>size_feedgas_mixer_existing</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="n">
-        <v>0.9000000000000001</v>
-      </c>
+      <c r="C110" t="n">
+        <v>1058.321060408895</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>3656.173402724777</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis_existing</t>
+          <t>size_MTO_existing</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="n">
-        <v>246.1617635344961</v>
-      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>325.346714</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer_existing</t>
+          <t>size_MeOHsynthesis_existing</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="n">
-        <v>4.677073506446391</v>
-      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>395.3180000000016</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>size_MTO_existing</t>
+          <t>size_syngas_mixer_existing</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="n">
-        <v>65.07096488207199</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>size_Storage_CO2_existing</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="n">
-        <v>62.75725477764991</v>
-      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>395.318</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Plotting/result_data_long_Scope1-2.xlsx
+++ b/Plotting/result_data_long_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,13 +474,6 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Iteration_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,21 +496,6 @@
           <t>2050</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -527,26 +505,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250808150315_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250812182236_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250808155430_2040_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250808_17_50\Iteration_1\20250808215731_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250808_17_50\Iteration_1\20250808230236_2040_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250812191136_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250813014604_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -555,19 +526,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2060839298.764688</v>
+        <v>2067057051.723722</v>
       </c>
       <c r="C5" t="n">
-        <v>1989094876.426372</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>3144017631.421227</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1736084737.714365</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>1890269400.777497</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1728635848.992303</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -577,14 +543,11 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>52898460.82227882</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>285978981.2824174</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>6410248.806402279</v>
+      </c>
+      <c r="D6" t="n">
+        <v>396486240.7965376</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -593,19 +556,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2060839298.764688</v>
+        <v>2067057051.723722</v>
       </c>
       <c r="C7" t="n">
-        <v>2041993337.248651</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>3144017631.421227</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2022063718.996782</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>1896679649.583899</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2125122089.788841</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -615,10 +573,9 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>60824485422.9006</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -627,19 +584,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1461029.634164181</v>
+        <v>2019957.086877712</v>
       </c>
       <c r="C9" t="n">
-        <v>179985.9293451491</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>1582503.873809524</v>
-      </c>
-      <c r="F9" t="n">
-        <v>194649.7211934948</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>126658.3017433653</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -653,14 +605,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1320.069365239371</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -669,19 +616,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.47739077487431</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1191135888214053</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0.1058321745377765</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.85374616805762</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -693,16 +635,11 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>152.0824956621404</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>35.7436129435044</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -714,16 +651,11 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8787996184265986</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -732,19 +664,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134.6254473269055</v>
+        <v>232.216869192003</v>
       </c>
       <c r="C14" t="n">
-        <v>242.6609491318073</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>440.6725285927222</v>
-      </c>
-      <c r="F14" t="n">
-        <v>55.89514127298668</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>292.2627527957953</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -753,19 +680,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>186.1131521739125</v>
+        <v>249.8855440218292</v>
       </c>
       <c r="C15" t="n">
-        <v>92.75943929776638</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>474.173402724777</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>142.5690823024031</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -777,16 +699,11 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>43.11538752021684</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>74.5337142694835</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>64.4004</v>
+      </c>
+      <c r="D16" t="n">
+        <v>188.8906632906528</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -800,14 +717,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -820,11 +732,6 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>205.8680403267672</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -837,11 +744,6 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -855,14 +757,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -877,13 +774,6 @@
         <v>0</v>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -898,13 +788,6 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -918,14 +801,9 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -934,19 +812,14 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>913.4523725244932</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2114</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>2114</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>2398.178802796525</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -955,19 +828,14 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.2702381263159</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3.427729174700414</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>3.045530202494311</v>
+      </c>
+      <c r="D25" t="n">
+        <v>830.3236307376509</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -981,14 +849,9 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1002,14 +865,9 @@
       <c r="C27" t="n">
         <v>1248</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
+      <c r="D27" t="n">
         <v>1248</v>
       </c>
-      <c r="F27" t="n">
-        <v>1248</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1023,14 +881,9 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1044,14 +897,9 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1063,16 +911,11 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>381.8244223006585</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>325.346714</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>369.0821159291879</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1084,16 +927,11 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>400.1195644992017</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>395.3180000000016</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+        <v>448.4594361229501</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1106,11 +944,6 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1125,13 +958,6 @@
         <v>0</v>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>451</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1145,14 +971,9 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1164,16 +985,11 @@
         <v>122.1461187214612</v>
       </c>
       <c r="C35" t="n">
-        <v>6.29761235250616</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>122.1461187214612</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5.735455166265404</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>6.074610066168026</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1187,14 +1003,9 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1207,11 +1018,6 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1224,11 +1030,6 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1237,17 +1038,14 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
         <v>1068</v>
       </c>
-      <c r="F39" t="n">
+      <c r="C39" t="n">
         <v>1068</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1258,15 +1056,12 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>0.8963328198066571</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1280,14 +1075,9 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1296,19 +1086,14 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>44.06344746070774</v>
       </c>
       <c r="C42" t="n">
-        <v>11611.03725671675</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>37860.51187427147</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>34307.17715119574</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1317,19 +1102,14 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.511503345161289e-10</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1338,19 +1118,14 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170.8155936620888</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1359,19 +1134,14 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1058.321060408895</v>
+        <v>1307.077031973132</v>
       </c>
       <c r="C45" t="n">
-        <v>2090.990244341974</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>3656.173402724777</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+        <v>2551.556397147625</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1385,14 +1155,9 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1404,16 +1169,11 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>400.1195644992017</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>395.318</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>448.4594361229502</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1427,14 +1187,9 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1443,19 +1198,14 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>90.96839437410742</v>
+        <v>113.8709366052088</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>71.47200000005238</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1469,14 +1219,9 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>253.2910632906527</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1490,14 +1235,9 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1511,14 +1251,9 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1532,14 +1267,9 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1553,14 +1283,9 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1574,14 +1299,9 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1595,14 +1315,9 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1616,14 +1331,9 @@
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1637,14 +1347,9 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1656,16 +1361,11 @@
         <v>122.1461187214612</v>
       </c>
       <c r="C59" t="n">
-        <v>128.4437310739674</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>122.1461187214612</v>
-      </c>
-      <c r="F59" t="n">
-        <v>127.8815738877281</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>128.2207287876292</v>
+      </c>
+      <c r="D59" t="n">
+        <v>128.2207287876292</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1679,14 +1379,9 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1695,19 +1390,14 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>142.5094000052393</v>
+        <v>135.1598173516003</v>
       </c>
       <c r="C61" t="n">
-        <v>142.5094000051478</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>136.5416640000293</v>
-      </c>
-      <c r="F61" t="n">
-        <v>137.1175225013586</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>137.0533130740406</v>
+      </c>
+      <c r="D61" t="n">
+        <v>140.0060190381506</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1719,16 +1409,11 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>152.0824956621418</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>35.74361294350528</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1742,14 +1427,9 @@
       <c r="C63" t="n">
         <v>0</v>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1763,14 +1443,9 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1779,19 +1454,14 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1800,19 +1470,14 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>539.4980167642001</v>
+        <v>332.9617962589732</v>
       </c>
       <c r="C66" t="n">
-        <v>3250</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
-        <v>1156.843658925859</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3250</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+        <v>3183.61783895178</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4386.601485482759</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1826,14 +1491,9 @@
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1847,14 +1507,9 @@
       <c r="C68" t="n">
         <v>0</v>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1868,14 +1523,9 @@
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1889,14 +1539,9 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1905,19 +1550,14 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>75.75268127855347</v>
+        <v>73.89383561643871</v>
       </c>
       <c r="C71" t="n">
-        <v>93.3926165558203</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>74.90249956592712</v>
-      </c>
-      <c r="F71" t="n">
-        <v>87.43704110324566</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+        <v>89.33342533816285</v>
+      </c>
+      <c r="D71" t="n">
+        <v>156.6556049974306</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1931,14 +1571,9 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1952,14 +1587,9 @@
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1973,14 +1603,9 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1994,14 +1619,9 @@
       <c r="C75" t="n">
         <v>0</v>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2010,19 +1630,14 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>721.6917191047805</v>
+        <v>958.1545061347259</v>
       </c>
       <c r="C76" t="n">
-        <v>3149.311304750869</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>3495.390463229572</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3474.588681587129</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+        <v>3858.633429120758</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2398.178802796525</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2036,14 +1651,9 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2057,14 +1667,9 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2078,14 +1683,9 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2099,14 +1699,9 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2120,14 +1715,9 @@
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2136,19 +1726,14 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>451.0000000000207</v>
+        <v>446.7637974883772</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>205.8680403267672</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2162,14 +1747,9 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2183,14 +1763,9 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2204,14 +1779,9 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2225,14 +1795,9 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2241,19 +1806,14 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11.11248738010056</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>11.11248738010056</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.3811634842316953</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+        <v>0.3386629585339382</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.52673732592369</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2267,14 +1827,9 @@
       <c r="C88" t="n">
         <v>0</v>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2288,14 +1843,9 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2309,14 +1859,9 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2330,14 +1875,9 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2351,14 +1891,9 @@
       <c r="C92" t="n">
         <v>0</v>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2372,14 +1907,9 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2393,14 +1923,9 @@
       <c r="C94" t="n">
         <v>0</v>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2414,14 +1939,9 @@
       <c r="C95" t="n">
         <v>0</v>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2435,14 +1955,9 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2456,14 +1971,9 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2477,14 +1987,9 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2498,243 +2003,207 @@
       <c r="C99" t="n">
         <v>0</v>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>size_ASU_existing</t>
+          <t>size_Boiler_El_existing</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>29.47739077487431</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+        <v>232.216869192003</v>
+      </c>
+      <c r="D100" t="n">
+        <v>524.4796219877983</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El_existing</t>
+          <t>size_Boiler_Industrial_NG_existing</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>134.6254473269055</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="n">
-        <v>440.6725285927222</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+        <v>249.8855440218292</v>
+      </c>
+      <c r="D101" t="n">
+        <v>392.4546263242323</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_Industrial_NG_existing</t>
+          <t>size_CO2electrolysis</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>186.1131521739125</v>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="n">
-        <v>474.173402724777</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
+        <v>160.2910632906527</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis</t>
+          <t>size_DirectMeOHsynthesis</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>162.3988821408014</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
-        <v>180.4067986693028</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>size_DirectMeOHsynthesis</t>
+          <t>size_PE_mixer_existing</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
+        <v>122.1461187214612</v>
+      </c>
+      <c r="D104" t="n">
+        <v>128.2207287876292</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>size_ElectricSMR_m_existing</t>
+          <t>size_Storage_CO2_existing</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>913.4523725244932</v>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
-        <v>2114</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
+        <v>44.06344746070774</v>
+      </c>
+      <c r="D105" t="n">
+        <v>34351.24059865645</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer_existing</t>
+          <t>size_feedgas_mixer_existing</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>848.2702381263159</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+        <v>1307.077031973132</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3858.633429120757</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer_existing</t>
+          <t>size_ASU_existing</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="n">
-        <v>122.1461187214612</v>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="n">
-        <v>122.1461187214612</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="n">
+        <v>0.1058321745377765</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_H2_existing</t>
+          <t>size_CO2_mixer_existing</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="n">
-        <v>1.511503345161289e-10</v>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>64.4004</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>size_WGS_m_existing</t>
+          <t>size_CO2electrolysis_existing</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="n">
-        <v>170.8155936620888</v>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>160.2910632906527</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer_existing</t>
+          <t>size_ElectricSMR_m_existing</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="n">
-        <v>1058.321060408895</v>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="n">
-        <v>3656.173402724777</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>2398.178802796525</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>size_MTO_existing</t>
+          <t>size_HBfeed_mixer_existing</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="n">
-        <v>325.346714</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>3.045530202494311</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>size_MeOHsynthesis_existing</t>
+          <t>size_MTO_existing</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="n">
-        <v>395.3180000000016</v>
-      </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>369.0821159291879</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>size_syngas_mixer_existing</t>
+          <t>size_MeOHsynthesis_existing</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="n">
-        <v>395.318</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>448.4594361229501</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>size_syngas_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>448.4594361229502</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Plotting/result_data_long_Scope1-2.xlsx
+++ b/Plotting/result_data_long_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,20 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +510,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,17 +549,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250812182236_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250902142856_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250812191136_2040_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250902153853_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250813014604_2050_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-2\20250902190718_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_1\20250906150548_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_1\20250906154937_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_1\20250906174219_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_2\20250906214215_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_2\20250906222521_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_2\20250906233105_2050_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
     </row>
@@ -526,13 +600,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2067057051.723722</v>
+        <v>2067123212.247488</v>
       </c>
       <c r="C5" t="n">
-        <v>1890269400.777497</v>
+        <v>1885975943.546046</v>
       </c>
       <c r="D5" t="n">
-        <v>1728635848.992303</v>
+        <v>1732322014.983746</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2693018922.166452</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1607674457.300771</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1579593737.791905</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2698726749.391702</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1603755841.199237</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1579768358.863009</v>
       </c>
     </row>
     <row r="6">
@@ -543,10 +635,24 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6410248.806402279</v>
+        <v>6409174.543860463</v>
       </c>
       <c r="D6" t="n">
-        <v>396486240.7965376</v>
+        <v>401423962.8946738</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>405297580.821606</v>
+      </c>
+      <c r="G6" t="n">
+        <v>491135073.6317664</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>404047658.3812331</v>
+      </c>
+      <c r="J6" t="n">
+        <v>488665287.9335028</v>
       </c>
     </row>
     <row r="7">
@@ -556,13 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2067057051.723722</v>
+        <v>2067123212.247488</v>
       </c>
       <c r="C7" t="n">
-        <v>1896679649.583899</v>
+        <v>1892385118.089906</v>
       </c>
       <c r="D7" t="n">
-        <v>2125122089.788841</v>
+        <v>2133745977.87842</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2693018922.166452</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2012972038.122377</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2070728811.423671</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2698726749.391702</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2007803499.58047</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2068433646.796512</v>
       </c>
     </row>
     <row r="8">
@@ -574,7 +698,17 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>60824485422.9006</v>
+        <v>60868451336.71955</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>63714221908.90894</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>63709162373.87452</v>
       </c>
     </row>
     <row r="9">
@@ -584,131 +718,275 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2019957.086877712</v>
+        <v>2013986.480191364</v>
       </c>
       <c r="C9" t="n">
-        <v>126658.3017433653</v>
+        <v>147141.7486477617</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1055606.312828686</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80604.85816836091</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1059438.531594158</v>
+      </c>
+      <c r="I9" t="n">
+        <v>82113.75943988388</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>size_AEC</t>
+          <t>CAPEX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6409174.543860463</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>395014788.3508134</v>
       </c>
       <c r="D10" t="n">
-        <v>1320.069365239371</v>
+        <v>84709978.61488359</v>
+      </c>
+      <c r="E10" t="n">
+        <v>405297580.821606</v>
+      </c>
+      <c r="F10" t="n">
+        <v>85837492.81016043</v>
+      </c>
+      <c r="G10" t="n">
+        <v>93769023.60066725</v>
+      </c>
+      <c r="H10" t="n">
+        <v>404047658.3812331</v>
+      </c>
+      <c r="I10" t="n">
+        <v>84617629.55226971</v>
+      </c>
+      <c r="J10" t="n">
+        <v>93683898.74479711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>size_ASU</t>
+          <t>OPEX_fix</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>204177558.3102906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1058321745377765</v>
+        <v>267786818.6439175</v>
       </c>
       <c r="D11" t="n">
-        <v>28.85374616805762</v>
+        <v>229503815.7670274</v>
+      </c>
+      <c r="E11" t="n">
+        <v>277096759.3831256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>218690279.839146</v>
+      </c>
+      <c r="G11" t="n">
+        <v>255844867.9498241</v>
+      </c>
+      <c r="H11" t="n">
+        <v>276718309.6225964</v>
+      </c>
+      <c r="I11" t="n">
+        <v>218022085.378172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>255131239.1188894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol</t>
+          <t>OPEX_var</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1550209135.75623</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1200794076.58199</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1418108220.601835</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1850066861.780473</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1290886685.724058</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1229979846.241414</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1856820180.732398</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1288626623.457989</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1230953220.999323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol_CC</t>
+          <t>OPEX_emis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>306327343.6371064</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22380259.969325</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>160557720.1812468</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12259998.9274077</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>161140600.6554743</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12489502.81080634</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El</t>
+          <t>size_AEC</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>232.216869192003</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>292.2627527957953</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1318.287720479468</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1329.710007191444</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1328.502879099999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_Industrial_NG</t>
+          <t>size_ASU</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>249.8855440218292</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>142.5690823024031</v>
+        <v>0.1080265070070031</v>
       </c>
       <c r="D15" t="n">
+        <v>28.81480342230801</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31.40434388415744</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30.97143647110148</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>size_CO2_mixer</t>
+          <t>size_Biomass2methanol</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.4004</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>188.8906632906528</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>size_CO2toEmission</t>
+          <t>size_Biomass2methanol_CC</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -718,129 +996,269 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace</t>
+          <t>size_Boiler_El</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+        <v>232.2168691920029</v>
+      </c>
+      <c r="C18" t="n">
+        <v>293.8281109410177</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>621.7999002628906</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>628.7238300900106</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_CC</t>
+          <t>size_Boiler_Industrial_NG</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+        <v>249.8855440218291</v>
+      </c>
+      <c r="C19" t="n">
+        <v>140.6439963625423</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>585.3708743692019</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>676.5329554229494</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_Electric</t>
+          <t>size_CO2_mixer</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>64.4004</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>192.2141505595866</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>197.6657818336653</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>196.2807558137249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_existing</t>
+          <t>size_CO2toEmission</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_existing_CC</t>
+          <t>size_CrackerFurnace</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>size_EDH</t>
+          <t>size_CrackerFurnace_CC</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>size_ElectricSMR_m</t>
+          <t>size_CrackerFurnace_Electric</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2398.178802796525</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer</t>
+          <t>size_CrackerFurnace_existing</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C25" t="n">
-        <v>3.045530202494311</v>
-      </c>
-      <c r="D25" t="n">
-        <v>830.3236307376509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch</t>
+          <t>size_CrackerFurnace_existing_CC</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -849,336 +1267,682 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch_existing</t>
+          <t>size_EDH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1248</v>
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>size_MPW2methanol</t>
+          <t>size_ElectricSMR_m</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2412.734197482532</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4035.291654431197</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4012.320629268853</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>size_MPW2methanol_CC</t>
+          <t>size_HBfeed_mixer</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.108676460624879</v>
       </c>
       <c r="D29" t="n">
+        <v>829.2029761688964</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.069544618483633e-11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>903.7221261628041</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>891.264358880618</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>size_MTO</t>
+          <t>size_HaberBosch</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>369.0821159291879</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>size_MeOHsynthesis</t>
+          <t>size_HaberBosch_existing</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="C31" t="n">
-        <v>448.4594361229501</v>
+        <v>1248</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1248</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1248</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation</t>
+          <t>size_MPW2methanol</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation_existing</t>
+          <t>size_MPW2methanol_CC</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>size_PDH</t>
+          <t>size_MTO</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>371.322205726759</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>621.0354209086156</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>617.5001571651056</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer</t>
+          <t>size_MeOHsynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.1461187214612</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.074610066168026</v>
+        <v>451.1812949292333</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>754.5995393786407</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>750.30395767327</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>size_RWGS</t>
+          <t>size_OlefinSeparation</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer</t>
+          <t>size_OlefinSeparation_existing</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>451</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_CC</t>
+          <t>size_PDH</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_existing</t>
+          <t>size_PE_mixer</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1068</v>
+        <v>122.1461187214612</v>
       </c>
       <c r="C39" t="n">
-        <v>1068</v>
+        <v>6.364821863887681</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>123.7097373314878</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.193313470257666</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>123.5724160152739</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.340944325477873</v>
+      </c>
+      <c r="J39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_existing_CC</t>
+          <t>size_RWGS</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8963328198066571</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Battery</t>
+          <t>size_SteamReformer</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_CO2</t>
+          <t>size_SteamReformer_CC</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>44.06344746070774</v>
-      </c>
-      <c r="C42" t="n">
-        <v>34307.17715119574</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_H2</t>
+          <t>size_SteamReformer_existing</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>1068</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>size_WGS_m</t>
+          <t>size_SteamReformer_existing_CC</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.8979982436909338</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer</t>
+          <t>size_Storage_Battery</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1307.077031973132</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>2551.556397147625</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>size_naphtha_mixer</t>
+          <t>size_Storage_CO2</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>33.04758559553068</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39913.32291956433</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3065.771787422524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4901.583938364751</v>
+      </c>
+      <c r="J46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>size_syngas_mixer</t>
+          <t>size_Storage_H2</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>448.4594361229502</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.825985516636418e-10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>CO2/import_max</t>
+          <t>size_WGS_m</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1188,29 +1952,65 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>181.9819021119474</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>179.4732901491325</v>
+      </c>
+      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>CO2/export_max</t>
+          <t>size_feedgas_mixer</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>113.8709366052088</v>
+        <v>1307.077031973132</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2457.386705893771</v>
       </c>
       <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5688.662528800435</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5756.853584691802</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>CO2_DAC/import_max</t>
+          <t>size_naphtha_mixer</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1220,29 +2020,65 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>253.2910632906527</v>
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>CO2_DAC/export_max</t>
+          <t>size_syngas_mixer</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>451.1812949292335</v>
       </c>
       <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>754.5995393786701</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>750.3039576731668</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>CO2captured/import_max</t>
+          <t>CO2/import_max</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1252,29 +2088,65 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CO2captured/export_max</t>
+          <t>CO2/export_max</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>102.8550747400336</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>71.47200000012009</v>
+      </c>
+      <c r="F53" t="n">
+        <v>48.86257140222412</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>71.47200008209374</v>
+      </c>
+      <c r="I53" t="n">
+        <v>46.16079631790333</v>
+      </c>
+      <c r="J53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>HBfeed/import_max</t>
+          <t>CO2_DAC/import_max</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1284,13 +2156,31 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>256.6145505595866</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>197.6657818336653</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>196.2807558137249</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>HBfeed/export_max</t>
+          <t>CO2_DAC/export_max</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1300,13 +2190,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>MPW/import_max</t>
+          <t>CO2captured/import_max</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1316,13 +2224,31 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>MPW/export_max</t>
+          <t>CO2captured/export_max</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1332,13 +2258,31 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>PE_olefin/import_max</t>
+          <t>HBfeed/import_max</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1348,29 +2292,65 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>PE_olefin/export_max</t>
+          <t>HBfeed/export_max</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>122.1461187214612</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>128.2207287876292</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>128.2207287876292</v>
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ammonia/import_max</t>
+          <t>MPW/import_max</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1380,29 +2360,65 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ammonia/export_max</t>
+          <t>MPW/export_max</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>135.1598173516003</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>137.0533130740406</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>140.0060190381506</v>
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>biomass/import_max</t>
+          <t>PE_olefin/import_max</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1412,29 +2428,65 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>biomass/export_max</t>
+          <t>PE_olefin/export_max</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>122.1461187214612</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>128.5109405853489</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>128.5109405853489</v>
+      </c>
+      <c r="E63" t="n">
+        <v>123.7097373314878</v>
+      </c>
+      <c r="F63" t="n">
+        <v>127.9030508017777</v>
+      </c>
+      <c r="G63" t="n">
+        <v>127.9030508017455</v>
+      </c>
+      <c r="H63" t="n">
+        <v>123.5724160152739</v>
+      </c>
+      <c r="I63" t="n">
+        <v>127.9133603407518</v>
+      </c>
+      <c r="J63" t="n">
+        <v>127.9133603407518</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>crackergas/import_max</t>
+          <t>ammonia/import_max</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1444,45 +2496,99 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>crackergas/export_max</t>
+          <t>ammonia/export_max</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>135.1598173516006</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>137.0639216453901</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>139.8283576466475</v>
+      </c>
+      <c r="E65" t="n">
+        <v>136.5416640000703</v>
+      </c>
+      <c r="F65" t="n">
+        <v>151.8253171953626</v>
+      </c>
+      <c r="G65" t="n">
+        <v>140.8472091077505</v>
+      </c>
+      <c r="H65" t="n">
+        <v>136.5416640009686</v>
+      </c>
+      <c r="I65" t="n">
+        <v>149.7324122920024</v>
+      </c>
+      <c r="J65" t="n">
+        <v>140.7152284128583</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>electricity/import_max</t>
+          <t>biomass/import_max</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>332.9617962589732</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>3183.61783895178</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>4386.601485482759</v>
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>electricity/export_max</t>
+          <t>biomass/export_max</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1492,13 +2598,31 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>ethanol/import_max</t>
+          <t>crackergas/import_max</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1508,13 +2632,31 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>ethanol/export_max</t>
+          <t>crackergas/export_max</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1524,45 +2666,99 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>ethylene/import_max</t>
+          <t>electricity/import_max</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>332.4660824750393</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3227.377303961356</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>4428.929286757269</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1900.000000000107</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3031.265562573514</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4428.38209162891</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1900</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3006.549575806909</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4401.900678398662</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>ethylene/export_max</t>
+          <t>electricity/export_max</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>73.89383561643871</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>89.33342533816285</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>156.6556049974306</v>
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>feedgas/import_max</t>
+          <t>ethanol/import_max</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1572,13 +2768,31 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>feedgas/export_max</t>
+          <t>ethanol/export_max</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1588,13 +2802,31 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>hydrogen/import_max</t>
+          <t>ethylene/import_max</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1604,45 +2836,99 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>hydrogen/export_max</t>
+          <t>ethylene/export_max</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>73.89383561643837</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>91.77870232989926</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>159.0214789703329</v>
+      </c>
+      <c r="E75" t="n">
+        <v>79.98988072655625</v>
+      </c>
+      <c r="F75" t="n">
+        <v>111.7777358964922</v>
+      </c>
+      <c r="G75" t="n">
+        <v>138.8053679201487</v>
+      </c>
+      <c r="H75" t="n">
+        <v>78.96763553502318</v>
+      </c>
+      <c r="I75" t="n">
+        <v>109.7726437015506</v>
+      </c>
+      <c r="J75" t="n">
+        <v>162.8275406177746</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>methane/import_max</t>
+          <t>feedgas/import_max</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>958.1545061347259</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>3858.633429120758</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>2398.178802796525</v>
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>methane/export_max</t>
+          <t>feedgas/export_max</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1652,13 +2938,31 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>methane_bio/import_max</t>
+          <t>hydrogen/import_max</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1668,13 +2972,31 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>methane_bio/export_max</t>
+          <t>hydrogen/export_max</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1684,29 +3006,65 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>methanol/import_max</t>
+          <t>methane/import_max</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>958.1545061347219</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>3764.463737866904</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>2412.734197482533</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5688.66252880048</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4035.291654431366</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4035.291654431234</v>
+      </c>
+      <c r="H80" t="n">
+        <v>5756.853584694108</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4012.320629269624</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4012.320629268853</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>methanol/export_max</t>
+          <t>methane/export_max</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1716,29 +3074,65 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>naphtha/import_max</t>
+          <t>methane_bio/import_max</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>446.7637974883772</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>naphtha/export_max</t>
+          <t>methane_bio/export_max</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1748,13 +3142,31 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>naphtha_bio/import_max</t>
+          <t>methanol/import_max</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1764,13 +3176,31 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>naphtha_bio/export_max</t>
+          <t>methanol/export_max</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1780,45 +3210,99 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>nitrogen/import_max</t>
+          <t>naphtha/import_max</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>446.7637974883764</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>nitrogen/export_max</t>
+          <t>naphtha/export_max</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3386629585339382</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>11.52673732592369</v>
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>olefins/import_max</t>
+          <t>naphtha_bio/import_max</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1828,13 +3312,31 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>olefins/export_max</t>
+          <t>naphtha_bio/export_max</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1844,13 +3346,31 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>propane/import_max</t>
+          <t>nitrogen/import_max</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1860,29 +3380,65 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>propane/export_max</t>
+          <t>nitrogen/export_max</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.3456848224268979</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>11.55613605712362</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.564932677900579e-11</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9.570924892674057</v>
+      </c>
+      <c r="G91" t="n">
+        <v>9.570924935036004</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9.917250823118835</v>
+      </c>
+      <c r="J91" t="n">
+        <v>9.917250823133983</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>propylene/import_max</t>
+          <t>olefins/import_max</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1892,13 +3448,31 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>propylene/export_max</t>
+          <t>olefins/export_max</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1908,13 +3482,31 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>steam/import_max</t>
+          <t>propane/import_max</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1924,13 +3516,31 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>steam/export_max</t>
+          <t>propane/export_max</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1940,13 +3550,31 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>syngas/import_max</t>
+          <t>propylene/import_max</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1956,13 +3584,31 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>syngas/export_max</t>
+          <t>propylene/export_max</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1972,13 +3618,31 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>syngas_r/import_max</t>
+          <t>steam/import_max</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1988,13 +3652,31 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>syngas_r/export_max</t>
+          <t>steam/export_max</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2004,206 +3686,590 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El_existing</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>syngas/import_max</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
       <c r="C100" t="n">
-        <v>232.216869192003</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>524.4796219877983</v>
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_Industrial_NG_existing</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>syngas/export_max</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
       <c r="C101" t="n">
-        <v>249.8855440218292</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>392.4546263242323</v>
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>syngas_r/import_max</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
       <c r="C102" t="n">
-        <v>160.2910632906527</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>size_DirectMeOHsynthesis</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>syngas_r/export_max</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer_existing</t>
+          <t>size_Boiler_El_existing</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>122.1461187214612</v>
+        <v>232.2168691920029</v>
       </c>
       <c r="D104" t="n">
-        <v>128.2207287876292</v>
+        <v>526.0449801330205</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>621.7999002628906</v>
+      </c>
+      <c r="G104" t="n">
+        <v>621.7999002628906</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>628.7238300900106</v>
+      </c>
+      <c r="J104" t="n">
+        <v>628.7238300900106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_CO2_existing</t>
+          <t>size_Boiler_Industrial_NG_existing</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>44.06344746070774</v>
+        <v>249.8855440218291</v>
       </c>
       <c r="D105" t="n">
-        <v>34351.24059865645</v>
+        <v>390.5295403843714</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>585.3708743692019</v>
+      </c>
+      <c r="G105" t="n">
+        <v>585.3708743692019</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>676.5329554229494</v>
+      </c>
+      <c r="J105" t="n">
+        <v>676.5329554229494</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer_existing</t>
+          <t>size_CO2electrolysis</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>1307.077031973132</v>
+        <v>163.6145505595866</v>
       </c>
       <c r="D106" t="n">
-        <v>3858.633429120757</v>
+        <v>0</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>104.6657818336652</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>103.2807558137249</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>size_ASU_existing</t>
+          <t>size_DirectMeOHsynthesis</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
       <c r="D107" t="n">
-        <v>0.1058321745377765</v>
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>size_CO2_mixer_existing</t>
+          <t>size_PE_mixer_existing</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>122.1461187214612</v>
+      </c>
       <c r="D108" t="n">
-        <v>64.4004</v>
+        <v>128.5109405853489</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>123.7097373314878</v>
+      </c>
+      <c r="G108" t="n">
+        <v>127.9030508017455</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>123.5724160152739</v>
+      </c>
+      <c r="J108" t="n">
+        <v>127.9133603407518</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis_existing</t>
+          <t>size_Storage_CO2_existing</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>33.04758559553068</v>
+      </c>
       <c r="D109" t="n">
-        <v>160.2910632906527</v>
+        <v>39946.37050515986</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>3065.771787422524</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>4901.583938364751</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>size_ElectricSMR_m_existing</t>
+          <t>size_feedgas_mixer_existing</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>1307.077031973132</v>
+      </c>
       <c r="D110" t="n">
-        <v>2398.178802796525</v>
+        <v>3764.463737866904</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>5688.662528800435</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5688.662528800435</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>5756.853584691802</v>
+      </c>
+      <c r="J110" t="n">
+        <v>5756.853584691802</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer_existing</t>
+          <t>size_ASU_existing</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>3.045530202494311</v>
+        <v>0.1080265070070031</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>31.40434388415744</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>30.97143647110148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>size_MTO_existing</t>
+          <t>size_CO2_mixer_existing</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>369.0821159291879</v>
-      </c>
+        <v>64.4004</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>size_MeOHsynthesis_existing</t>
+          <t>size_CO2electrolysis_existing</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>448.4594361229501</v>
+        <v>163.6145505595866</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>104.6657818336652</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>103.2807558137249</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>size_syngas_mixer_existing</t>
+          <t>size_ElectricSMR_m_existing</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>448.4594361229502</v>
+        <v>2412.734197482532</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>4035.291654431197</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4035.291654431197</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>4012.320629268853</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4012.320629268853</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>size_HBfeed_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>3.108676460624879</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>3.069544618483633e-11</v>
+      </c>
+      <c r="G115" t="n">
+        <v>903.7221261628348</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>891.264358880618</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>size_MTO_existing</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>371.322205726759</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>621.0354209086156</v>
+      </c>
+      <c r="G116" t="n">
+        <v>621.0354209086156</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>617.5001571651056</v>
+      </c>
+      <c r="J116" t="n">
+        <v>617.5001571651056</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>size_MeOHsynthesis_existing</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>451.1812949292333</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>754.5995393786407</v>
+      </c>
+      <c r="G117" t="n">
+        <v>754.5995393786407</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>750.30395767327</v>
+      </c>
+      <c r="J117" t="n">
+        <v>750.30395767327</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>size_syngas_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>451.1812949292335</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>754.5995393786701</v>
+      </c>
+      <c r="G118" t="n">
+        <v>754.5995393786701</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>750.3039576731668</v>
+      </c>
+      <c r="J118" t="n">
+        <v>750.3039576731668</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_H2_existing</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>1.825985516636418e-10</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.825985516636418e-10</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>size_WGS_m_existing</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>181.9819021119474</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>179.4732901491325</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Plotting/result_data_long_Scope1-2.xlsx
+++ b/Plotting/result_data_long_Scope1-2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,13 @@
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -540,6 +547,21 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -592,6 +614,21 @@
           <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_2\20250906233105_2050_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_3\20250907031343_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_3\20250907035737_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-2\Results_model_linking_20250906_11_16\Iteration_3\20250907051507_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -625,6 +662,15 @@
       </c>
       <c r="J5" t="n">
         <v>1579768358.863009</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2696614952.54465</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1604880234.459662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1581029367.400599</v>
       </c>
     </row>
     <row r="6">
@@ -654,6 +700,13 @@
       <c r="J6" t="n">
         <v>488665287.9335028</v>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>404047658.3696923</v>
+      </c>
+      <c r="M6" t="n">
+        <v>493779982.7382432</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -687,6 +740,15 @@
       </c>
       <c r="J7" t="n">
         <v>2068433646.796512</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2696614952.54465</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2008927892.829354</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2074809350.138842</v>
       </c>
     </row>
     <row r="8">
@@ -710,6 +772,11 @@
       <c r="J8" t="n">
         <v>63709162373.87452</v>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>63763045371.43154</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +811,15 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
+      <c r="K9" t="n">
+        <v>1061134.092719348</v>
+      </c>
+      <c r="L9" t="n">
+        <v>80164.56432851279</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -778,6 +854,15 @@
       <c r="J10" t="n">
         <v>93683898.74479711</v>
       </c>
+      <c r="K10" t="n">
+        <v>404047658.3696923</v>
+      </c>
+      <c r="L10" t="n">
+        <v>89732324.3685509</v>
+      </c>
+      <c r="M10" t="n">
+        <v>93606565.33546875</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -812,6 +897,15 @@
       <c r="J11" t="n">
         <v>255131239.1188894</v>
       </c>
+      <c r="K11" t="n">
+        <v>276718309.6225963</v>
+      </c>
+      <c r="L11" t="n">
+        <v>219400777.4261928</v>
+      </c>
+      <c r="M11" t="n">
+        <v>256468655.0512534</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -846,6 +940,15 @@
       <c r="J12" t="n">
         <v>1230953220.999323</v>
       </c>
+      <c r="K12" t="n">
+        <v>1854450489.049746</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1283554102.430551</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1230954147.013877</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -880,6 +983,15 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
+      <c r="K13" t="n">
+        <v>161398495.5026149</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12193030.23436679</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -914,6 +1026,15 @@
       <c r="J14" t="n">
         <v>1328.502879099999</v>
       </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1327.40623004858</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -948,6 +1069,15 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>32.07136594856987</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -982,6 +1112,15 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1016,6 +1155,15 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1050,6 +1198,15 @@
       <c r="J18" t="n">
         <v>0</v>
       </c>
+      <c r="K18" t="n">
+        <v>628.7238300900185</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1084,6 +1241,15 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
+      <c r="K19" t="n">
+        <v>676.5329554229585</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1118,6 +1284,15 @@
       <c r="J20" t="n">
         <v>196.2807558137249</v>
       </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>201.7574138910317</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1150,6 +1325,15 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,6 +1358,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1196,6 +1385,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1228,6 +1422,15 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1254,6 +1457,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1278,6 +1486,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1312,6 +1525,15 @@
       <c r="J27" t="n">
         <v>0</v>
       </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1346,6 +1568,15 @@
       <c r="J28" t="n">
         <v>0</v>
       </c>
+      <c r="K28" t="n">
+        <v>4012.320629268807</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1380,6 +1611,15 @@
       <c r="J29" t="n">
         <v>0</v>
       </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>922.9170057142408</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1414,6 +1654,15 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1448,6 +1697,15 @@
       <c r="J31" t="n">
         <v>1248</v>
       </c>
+      <c r="K31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1248</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1482,6 +1740,15 @@
       <c r="J32" t="n">
         <v>0</v>
       </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1516,6 +1783,15 @@
       <c r="J33" t="n">
         <v>0</v>
       </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1550,6 +1826,15 @@
       <c r="J34" t="n">
         <v>0</v>
       </c>
+      <c r="K34" t="n">
+        <v>617.5001571651038</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1582,6 +1867,15 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>750.3039576732901</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1606,6 +1900,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1630,6 +1929,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1664,6 +1968,15 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1698,6 +2011,15 @@
       <c r="J39" t="n">
         <v>0</v>
       </c>
+      <c r="K39" t="n">
+        <v>123.4492212064896</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.049920629278152</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1730,6 +2052,15 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1754,6 +2085,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1776,6 +2112,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1806,6 +2147,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1068</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1836,6 +2184,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1870,6 +2225,15 @@
       <c r="J45" t="n">
         <v>0</v>
       </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1904,6 +2268,15 @@
       <c r="J46" t="n">
         <v>0</v>
       </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3110.651287889996</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1938,6 +2311,15 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1972,6 +2354,15 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>185.8471618434203</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2006,6 +2397,15 @@
       <c r="J49" t="n">
         <v>0</v>
       </c>
+      <c r="K49" t="n">
+        <v>5756.853584692046</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2040,6 +2440,15 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2074,6 +2483,15 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
+      <c r="K51" t="n">
+        <v>750.3039576732901</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2108,6 +2526,15 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2142,6 +2569,15 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
+      <c r="K53" t="n">
+        <v>71.47200000076735</v>
+      </c>
+      <c r="L53" t="n">
+        <v>107.1573933053093</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2176,6 +2612,15 @@
       <c r="J54" t="n">
         <v>196.2807558137249</v>
       </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>201.7574138910317</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2210,6 +2655,15 @@
       <c r="J55" t="n">
         <v>0</v>
       </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2244,6 +2698,15 @@
       <c r="J56" t="n">
         <v>0</v>
       </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2278,6 +2741,15 @@
       <c r="J57" t="n">
         <v>0</v>
       </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2312,6 +2784,15 @@
       <c r="J58" t="n">
         <v>0</v>
       </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2346,6 +2827,15 @@
       <c r="J59" t="n">
         <v>0</v>
       </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2380,6 +2870,15 @@
       <c r="J60" t="n">
         <v>0</v>
       </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2414,6 +2913,15 @@
       <c r="J61" t="n">
         <v>0</v>
       </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2448,6 +2956,15 @@
       <c r="J62" t="n">
         <v>0</v>
       </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2482,6 +2999,15 @@
       <c r="J63" t="n">
         <v>127.9133603407518</v>
       </c>
+      <c r="K63" t="n">
+        <v>123.4492212064896</v>
+      </c>
+      <c r="L63" t="n">
+        <v>127.4991418357758</v>
+      </c>
+      <c r="M63" t="n">
+        <v>127.4991418357678</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2516,6 +3042,15 @@
       <c r="J64" t="n">
         <v>0</v>
       </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2550,6 +3085,15 @@
       <c r="J65" t="n">
         <v>140.7152284128583</v>
       </c>
+      <c r="K65" t="n">
+        <v>136.5416640002112</v>
+      </c>
+      <c r="L65" t="n">
+        <v>155.0500569599925</v>
+      </c>
+      <c r="M65" t="n">
+        <v>140.6168248068649</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2584,6 +3128,15 @@
       <c r="J66" t="n">
         <v>0</v>
       </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2618,6 +3171,15 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2652,6 +3214,15 @@
       <c r="J68" t="n">
         <v>0</v>
       </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2686,6 +3257,15 @@
       <c r="J69" t="n">
         <v>0</v>
       </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2720,6 +3300,15 @@
       <c r="J70" t="n">
         <v>4401.900678398662</v>
       </c>
+      <c r="K70" t="n">
+        <v>1900</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3068.55656556474</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4463.641066991778</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2754,6 +3343,15 @@
       <c r="J71" t="n">
         <v>0</v>
       </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2788,6 +3386,15 @@
       <c r="J72" t="n">
         <v>0</v>
       </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2822,6 +3429,15 @@
       <c r="J73" t="n">
         <v>0</v>
       </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2856,6 +3472,15 @@
       <c r="J74" t="n">
         <v>0</v>
       </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2890,6 +3515,15 @@
       <c r="J75" t="n">
         <v>162.8275406177746</v>
       </c>
+      <c r="K75" t="n">
+        <v>79.09083034389072</v>
+      </c>
+      <c r="L75" t="n">
+        <v>113.4894667180675</v>
+      </c>
+      <c r="M75" t="n">
+        <v>140.5128728767856</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2924,6 +3558,15 @@
       <c r="J76" t="n">
         <v>0</v>
       </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2958,6 +3601,15 @@
       <c r="J77" t="n">
         <v>0</v>
       </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2992,6 +3644,15 @@
       <c r="J78" t="n">
         <v>0</v>
       </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3026,6 +3687,15 @@
       <c r="J79" t="n">
         <v>0</v>
       </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3060,6 +3730,15 @@
       <c r="J80" t="n">
         <v>4012.320629268853</v>
       </c>
+      <c r="K80" t="n">
+        <v>5756.853584692373</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4012.320629268808</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4012.320629268932</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3094,6 +3773,15 @@
       <c r="J81" t="n">
         <v>0</v>
       </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3128,6 +3816,15 @@
       <c r="J82" t="n">
         <v>0</v>
       </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3162,6 +3859,15 @@
       <c r="J83" t="n">
         <v>0</v>
       </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3196,6 +3902,15 @@
       <c r="J84" t="n">
         <v>0</v>
       </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3230,6 +3945,15 @@
       <c r="J85" t="n">
         <v>0</v>
       </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3264,6 +3988,15 @@
       <c r="J86" t="n">
         <v>0</v>
       </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3298,6 +4031,15 @@
       <c r="J87" t="n">
         <v>0</v>
       </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3332,6 +4074,15 @@
       <c r="J88" t="n">
         <v>0</v>
       </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3366,6 +4117,15 @@
       <c r="J89" t="n">
         <v>0</v>
       </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3400,6 +4160,15 @@
       <c r="J90" t="n">
         <v>0</v>
       </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3434,6 +4203,15 @@
       <c r="J91" t="n">
         <v>9.917250823133983</v>
       </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>9.037307241144106</v>
+      </c>
+      <c r="M91" t="n">
+        <v>9.037307241152973</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3468,6 +4246,15 @@
       <c r="J92" t="n">
         <v>0</v>
       </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3502,6 +4289,15 @@
       <c r="J93" t="n">
         <v>0</v>
       </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3536,6 +4332,15 @@
       <c r="J94" t="n">
         <v>0</v>
       </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3570,6 +4375,15 @@
       <c r="J95" t="n">
         <v>0</v>
       </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3604,6 +4418,15 @@
       <c r="J96" t="n">
         <v>0</v>
       </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3638,6 +4461,15 @@
       <c r="J97" t="n">
         <v>0</v>
       </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3672,6 +4504,15 @@
       <c r="J98" t="n">
         <v>0</v>
       </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3706,6 +4547,15 @@
       <c r="J99" t="n">
         <v>0</v>
       </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3740,6 +4590,15 @@
       <c r="J100" t="n">
         <v>0</v>
       </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3774,6 +4633,15 @@
       <c r="J101" t="n">
         <v>0</v>
       </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3808,6 +4676,15 @@
       <c r="J102" t="n">
         <v>0</v>
       </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3840,6 +4717,15 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3870,6 +4756,13 @@
       <c r="J104" t="n">
         <v>628.7238300900106</v>
       </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>628.7238300900185</v>
+      </c>
+      <c r="M104" t="n">
+        <v>628.7238300900185</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3898,6 +4791,13 @@
       <c r="J105" t="n">
         <v>676.5329554229494</v>
       </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>676.5329554229585</v>
+      </c>
+      <c r="M105" t="n">
+        <v>676.5329554229585</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3926,6 +4826,13 @@
       <c r="J106" t="n">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>108.7574138910316</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3952,6 +4859,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3981,6 +4895,13 @@
       </c>
       <c r="J108" t="n">
         <v>127.9133603407518</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>123.4492212064896</v>
+      </c>
+      <c r="M108" t="n">
+        <v>127.4991418357678</v>
       </c>
     </row>
     <row r="109">
@@ -4006,6 +4927,11 @@
       <c r="J109" t="n">
         <v>4901.583938364751</v>
       </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>3110.651287889996</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4033,6 +4959,13 @@
       </c>
       <c r="J110" t="n">
         <v>5756.853584691802</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>5756.853584692046</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5756.853584692046</v>
       </c>
     </row>
     <row r="111">
@@ -4055,6 +4988,11 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>30.97143647110148</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>32.07136594856987</v>
       </c>
     </row>
     <row r="112">
@@ -4074,6 +5012,9 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4096,6 +5037,11 @@
       <c r="J113" t="n">
         <v>103.2807558137249</v>
       </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>108.7574138910316</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -4122,6 +5068,13 @@
       <c r="J114" t="n">
         <v>4012.320629268853</v>
       </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>4012.320629268807</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4012.320629268807</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4146,6 +5099,11 @@
       <c r="J115" t="n">
         <v>891.264358880618</v>
       </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>922.9170057142408</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -4172,6 +5130,13 @@
       <c r="J116" t="n">
         <v>617.5001571651056</v>
       </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>617.5001571651038</v>
+      </c>
+      <c r="M116" t="n">
+        <v>617.5001571651038</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -4198,6 +5163,13 @@
       <c r="J117" t="n">
         <v>750.30395767327</v>
       </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>750.3039576732901</v>
+      </c>
+      <c r="M117" t="n">
+        <v>750.3039576732901</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -4223,6 +5195,13 @@
       </c>
       <c r="J118" t="n">
         <v>750.3039576731668</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>750.3039576732901</v>
+      </c>
+      <c r="M118" t="n">
+        <v>750.3039576732901</v>
       </c>
     </row>
     <row r="119">
@@ -4244,6 +5223,9 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4264,12 +5246,18 @@
       <c r="J120" t="n">
         <v>179.4732901491325</v>
       </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>185.8471618434203</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
